--- a/Stack Overflow Posts.xlsx
+++ b/Stack Overflow Posts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1853C-9065-4D99-B4A1-70C613A5E341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0D64F-B76B-469A-9816-304B3EA39477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -42,6 +43,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -55,6 +57,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -65,6 +68,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -78,6 +82,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,6 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,6 +107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,6 +118,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,6 +132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,6 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,6 +157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,6 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,6 +179,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,6 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,6 +204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,6 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,6 +229,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,6 +240,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,6 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -272,6 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,6 +307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,6 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -505,6 +530,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,7 +947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +960,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -942,6 +969,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -950,6 +978,7 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -958,6 +987,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -965,12 +995,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -978,6 +1010,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -997,12 +1037,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0E5A0E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1016,6 +1050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7F6DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF375623"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,29 +1152,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1145,6 +1185,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF375623"/>
       <color rgb="FFE2EFDA"/>
       <color rgb="FFB8B8E6"/>
       <color rgb="FFE6E6FF"/>
@@ -1154,7 +1195,6 @@
       <color rgb="FFFBE5D6"/>
       <color rgb="FF0E5A0E"/>
       <color rgb="FF5CB35C"/>
-      <color rgb="FF8ACD8A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1428,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I663"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1438,7 +1478,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1451,7 +1491,7 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
@@ -1464,7 +1504,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
@@ -1477,7 +1517,7 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
@@ -1490,7 +1530,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
@@ -1503,7 +1543,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
@@ -1516,7 +1556,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
@@ -1529,7 +1569,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
@@ -1542,7 +1582,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
@@ -1565,7 +1605,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
@@ -1578,7 +1618,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
@@ -1591,7 +1631,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
@@ -1604,7 +1644,7 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
@@ -8694,7 +8734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D125" sqref="D125:D132"/>
     </sheetView>
   </sheetViews>
@@ -8721,184 +8761,184 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>35248269</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>47012866</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>33039188</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>34339623</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>38817578</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>36872442</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>38411785</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>34725497</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>36328151</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>34339623</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>53629690</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>36236933</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>35962747</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8912,7 +8952,7 @@
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8926,7 +8966,7 @@
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8940,7 +8980,7 @@
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8954,7 +8994,7 @@
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8968,7 +9008,7 @@
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8982,7 +9022,7 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8996,7 +9036,7 @@
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9010,7 +9050,7 @@
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9024,7 +9064,7 @@
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9038,7 +9078,7 @@
       <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9052,7 +9092,7 @@
       <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9066,7 +9106,7 @@
       <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9080,7 +9120,7 @@
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9094,7 +9134,7 @@
       <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9108,7 +9148,7 @@
       <c r="C29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9122,7 +9162,7 @@
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9136,7 +9176,7 @@
       <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9150,7 +9190,7 @@
       <c r="C32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9164,7 +9204,7 @@
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9178,7 +9218,7 @@
       <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9192,7 +9232,7 @@
       <c r="C35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9206,7 +9246,7 @@
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9220,7 +9260,7 @@
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9234,7 +9274,7 @@
       <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9248,7 +9288,7 @@
       <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9262,7 +9302,7 @@
       <c r="C40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9276,7 +9316,7 @@
       <c r="C41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9290,7 +9330,7 @@
       <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9304,7 +9344,7 @@
       <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9318,105 +9358,105 @@
       <c r="C44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>47787577</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>57604040</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>47855085</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>49002342</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>38971611</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>53543573</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>48583332</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9430,7 +9470,7 @@
       <c r="C52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9444,7 +9484,7 @@
       <c r="C53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9458,7 +9498,7 @@
       <c r="C54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9472,119 +9512,119 @@
       <c r="C55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>49153594</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>36797407</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>38283823</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>52781910</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>48641229</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>59974951</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>59418504</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>50382086</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9598,7 +9638,7 @@
       <c r="C64" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9612,7 +9652,7 @@
       <c r="C65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9626,7 +9666,7 @@
       <c r="C66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9640,651 +9680,651 @@
       <c r="C67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>44374646</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>36662616</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>43477510</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>33162451</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>41362459</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>56685799</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>43855522</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>34150083</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>43639072</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>31878501</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>44031624</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>42057125</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>40142331</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>40136322</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>34959331</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>40561609</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>37756455</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>48108381</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>37523025</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>37441258</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>57260773</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>34139048</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>41625381</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>44491484</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>38866426</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>38391286</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>37160573</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>32084038</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>32636039</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>42204857</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>53276666</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>38500343</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>38608387</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>32481298</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>36397874</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>32563507</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="7">
         <v>42275906</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <v>35319702</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="7">
         <v>47757175</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="7">
         <v>42762413</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="7">
         <v>46916992</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="7">
         <v>30719047</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="7">
         <v>41256582</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="7">
         <v>42207691</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="7">
         <v>43755476</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="7">
         <v>32347532</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10298,7 +10338,7 @@
       <c r="C114" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10312,7 +10352,7 @@
       <c r="C115" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10326,7 +10366,7 @@
       <c r="C116" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -10340,7 +10380,7 @@
       <c r="C117" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10354,7 +10394,7 @@
       <c r="C118" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10368,7 +10408,7 @@
       <c r="C119" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -10382,7 +10422,7 @@
       <c r="C120" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10396,49 +10436,49 @@
       <c r="C121" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="7">
         <v>58059097</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="7">
         <v>59953051</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="7">
         <v>58027471</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -10452,7 +10492,7 @@
       <c r="C125" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -10466,7 +10506,7 @@
       <c r="C126" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10480,7 +10520,7 @@
       <c r="C127" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10494,7 +10534,7 @@
       <c r="C128" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -10508,7 +10548,7 @@
       <c r="C129" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -10522,7 +10562,7 @@
       <c r="C130" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -10536,7 +10576,7 @@
       <c r="C131" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10550,63 +10590,63 @@
       <c r="C132" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="7">
         <v>36187147</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="7">
         <v>39603098</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135" s="7">
         <v>36693278</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136" s="7">
         <v>39401699</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="8" t="s">
         <v>162</v>
       </c>
     </row>

--- a/Stack Overflow Posts.xlsx
+++ b/Stack Overflow Posts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0D64F-B76B-469A-9816-304B3EA39477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E78A0-447B-46BE-BD10-863A6A0D7348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="164">
   <si>
     <t>Non-library-interfered  issues</t>
   </si>
@@ -261,56 +261,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Type 9:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Conflicting targetSdkVersion settings in &lt;uses-sdk&gt; attributes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Type 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Libraries setting maxSdkVersion in &lt;uses-permission&gt; attributes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Type 11:</t>
     </r>
     <r>
@@ -495,10 +445,6 @@
   </si>
   <si>
     <t>Type 4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/a/39655365</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -899,10 +845,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>https://stackoverflow.com/a/42762413</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>https://stackoverflow.com/q/46916992</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -940,6 +882,70 @@
   </si>
   <si>
     <t>https://stackoverflow.com/q/39401699</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type 9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conflicting targetSdkVersion settings in &lt;uses-sdk&gt; elements</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Libraries setting maxSdkVersion in &lt;uses-permission&gt; elements</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/q/39654809</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/q/42762308</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/q/33166169</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,6 +1182,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1184,6 +1193,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF375623"/>
       <color rgb="FFE2EFDA"/>
@@ -1216,7 +1291,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1468,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I663"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1618,8 +1693,8 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1631,8 +1706,8 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
+      <c r="A13" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1645,7 +1720,7 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8734,8 +8809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D125" sqref="D125:D132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8748,16 +8823,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8768,10 +8843,10 @@
         <v>35248269</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8782,10 +8857,10 @@
         <v>47012866</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8796,10 +8871,10 @@
         <v>33039188</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8810,10 +8885,10 @@
         <v>34339623</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8824,10 +8899,10 @@
         <v>38817578</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8838,10 +8913,10 @@
         <v>36872442</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8852,10 +8927,10 @@
         <v>38411785</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8866,10 +8941,10 @@
         <v>34725497</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8880,10 +8955,10 @@
         <v>36328151</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8891,13 +8966,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>34339623</v>
+        <v>33166169</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8908,10 +8983,10 @@
         <v>53629690</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8922,10 +8997,10 @@
         <v>36236933</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8936,10 +9011,10 @@
         <v>35962747</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8950,10 +9025,10 @@
         <v>58185793</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8964,10 +9039,10 @@
         <v>58395147</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8978,10 +9053,10 @@
         <v>58816066</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8992,10 +9067,10 @@
         <v>45375517</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,10 +9081,10 @@
         <v>59180364</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9020,10 +9095,10 @@
         <v>59857846</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9034,10 +9109,10 @@
         <v>59189266</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9048,10 +9123,10 @@
         <v>47399539</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9062,10 +9137,10 @@
         <v>57981258</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9076,10 +9151,10 @@
         <v>55248066</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9090,10 +9165,10 @@
         <v>58218875</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9104,10 +9179,10 @@
         <v>58921188</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9118,10 +9193,10 @@
         <v>56220207</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9132,10 +9207,10 @@
         <v>53912364</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9146,10 +9221,10 @@
         <v>51773448</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9160,10 +9235,10 @@
         <v>50475371</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9174,10 +9249,10 @@
         <v>53005755</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9188,10 +9263,10 @@
         <v>44836631</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9202,10 +9277,10 @@
         <v>50587701</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9216,10 +9291,10 @@
         <v>49894168</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9230,10 +9305,10 @@
         <v>50403699</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9244,10 +9319,10 @@
         <v>57093522</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,10 +9333,10 @@
         <v>56900815</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9272,10 +9347,10 @@
         <v>60550536</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9286,10 +9361,10 @@
         <v>58017585</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,10 +9375,10 @@
         <v>59326190</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9314,10 +9389,10 @@
         <v>47658299</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9328,10 +9403,10 @@
         <v>56730796</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9342,10 +9417,10 @@
         <v>41984812</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,10 +9431,10 @@
         <v>56848437</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9370,10 +9445,10 @@
         <v>47787577</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9384,10 +9459,10 @@
         <v>57604040</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9398,10 +9473,10 @@
         <v>47855085</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9412,10 +9487,10 @@
         <v>49002342</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9426,10 +9501,10 @@
         <v>38971611</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9440,10 +9515,10 @@
         <v>53543573</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9454,10 +9529,10 @@
         <v>48583332</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9465,13 +9540,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4">
-        <v>39655365</v>
+        <v>39654809</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9482,10 +9557,10 @@
         <v>38425153</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9496,10 +9571,10 @@
         <v>47950650</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9510,10 +9585,10 @@
         <v>51179958</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9524,10 +9599,10 @@
         <v>49153594</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9538,10 +9613,10 @@
         <v>36797407</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9552,10 +9627,10 @@
         <v>38283823</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9566,10 +9641,10 @@
         <v>52781910</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9580,10 +9655,10 @@
         <v>48641229</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9594,10 +9669,10 @@
         <v>59974951</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9608,10 +9683,10 @@
         <v>59418504</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9622,10 +9697,10 @@
         <v>50382086</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9636,10 +9711,10 @@
         <v>57056168</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9650,10 +9725,10 @@
         <v>43467522</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9664,10 +9739,10 @@
         <v>45791799</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9678,10 +9753,10 @@
         <v>46263727</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9692,10 +9767,10 @@
         <v>44374646</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9706,10 +9781,10 @@
         <v>36662616</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9720,10 +9795,10 @@
         <v>43477510</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9734,10 +9809,10 @@
         <v>33162451</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9748,10 +9823,10 @@
         <v>41362459</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9762,10 +9837,10 @@
         <v>56685799</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9776,10 +9851,10 @@
         <v>43855522</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9790,10 +9865,10 @@
         <v>34150083</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9804,10 +9879,10 @@
         <v>43639072</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9818,10 +9893,10 @@
         <v>31878501</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9832,10 +9907,10 @@
         <v>44031624</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9846,10 +9921,10 @@
         <v>42057125</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9860,10 +9935,10 @@
         <v>40142331</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9874,10 +9949,10 @@
         <v>40136322</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9888,10 +9963,10 @@
         <v>34959331</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9902,10 +9977,10 @@
         <v>40561609</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9916,10 +9991,10 @@
         <v>37756455</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9930,10 +10005,10 @@
         <v>48108381</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9944,10 +10019,10 @@
         <v>37523025</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9958,10 +10033,10 @@
         <v>37441258</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9972,10 +10047,10 @@
         <v>57260773</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9986,10 +10061,10 @@
         <v>34139048</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10000,10 +10075,10 @@
         <v>41625381</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10014,10 +10089,10 @@
         <v>44491484</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10028,10 +10103,10 @@
         <v>38866426</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10042,10 +10117,10 @@
         <v>38391286</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10056,10 +10131,10 @@
         <v>37160573</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10070,10 +10145,10 @@
         <v>32084038</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10084,10 +10159,10 @@
         <v>32636039</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10098,10 +10173,10 @@
         <v>42204857</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10112,10 +10187,10 @@
         <v>53276666</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10126,10 +10201,10 @@
         <v>38500343</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10140,10 +10215,10 @@
         <v>38608387</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10154,10 +10229,10 @@
         <v>32481298</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10168,10 +10243,10 @@
         <v>36397874</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10182,10 +10257,10 @@
         <v>32563507</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10196,10 +10271,10 @@
         <v>42275906</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10210,10 +10285,10 @@
         <v>35319702</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10224,10 +10299,10 @@
         <v>47757175</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10235,13 +10310,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="7">
-        <v>42762413</v>
+        <v>42762308</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10252,10 +10327,10 @@
         <v>46916992</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10266,10 +10341,10 @@
         <v>30719047</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10280,10 +10355,10 @@
         <v>41256582</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10294,10 +10369,10 @@
         <v>42207691</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10308,10 +10383,10 @@
         <v>43755476</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10322,10 +10397,10 @@
         <v>32347532</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10336,10 +10411,10 @@
         <v>47238255</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10350,10 +10425,10 @@
         <v>35996955</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10364,10 +10439,10 @@
         <v>32890702</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10378,10 +10453,10 @@
         <v>32714787</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10392,10 +10467,10 @@
         <v>49490276</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10406,10 +10481,10 @@
         <v>43999632</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10420,10 +10495,10 @@
         <v>45649076</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10434,10 +10509,10 @@
         <v>33169455</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10448,10 +10523,10 @@
         <v>58059097</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10462,10 +10537,10 @@
         <v>59953051</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10476,10 +10551,10 @@
         <v>58027471</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10490,10 +10565,10 @@
         <v>27962789</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10504,10 +10579,10 @@
         <v>27542669</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10518,10 +10593,10 @@
         <v>36547397</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10532,10 +10607,10 @@
         <v>48264971</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10546,10 +10621,10 @@
         <v>49709872</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10560,10 +10635,10 @@
         <v>49778046</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10574,10 +10649,10 @@
         <v>54615936</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10588,10 +10663,10 @@
         <v>50972669</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10602,10 +10677,10 @@
         <v>36187147</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10616,10 +10691,10 @@
         <v>39603098</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10630,10 +10705,10 @@
         <v>36693278</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10644,10 +10719,10 @@
         <v>39401699</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -10790,6 +10865,6 @@
     <hyperlink ref="D124" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>